--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5041,7 +5042,6 @@
           <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>57.83</t>
@@ -5073,7 +5073,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -5089,6 +5088,896 @@
       </c>
       <c r="H61" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>147.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>52.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>206008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华丰盛债券</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160612</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华丰收债券</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003889</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000054</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华双债增利债券</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003890</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇安丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.51</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>68.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5983,4 +5984,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.9412</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1137</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4565</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012930</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1660</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0420</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5453</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4245</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2871</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003594</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004301</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008037</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003595</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛盛崇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008038</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>兴银先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004302</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保稳信混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001474</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴银丰盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7142,4 +7143,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>60</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7151,7 +7152,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7162,17 +7163,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7182,14 +7203,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.69</v>
+          <t>166019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>228.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7333</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -7198,14 +7241,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.12</v>
+          <t>004235</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1801</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7214,14 +7279,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>60</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.49</v>
+          <t>013220</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7230,13 +7317,1363 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001887</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧价值智选回报混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1938</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013221</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新兴价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7361</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华景气行业混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519091</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华泛资源优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519089</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华优选成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4668</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>240009</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝先进成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014150</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3595</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000584</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1500</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009886</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华景气行业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004573</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华鑫泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>23.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>35.71</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>60</v>
       </c>
       <c r="D5" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" t="n">
         <v>24.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8572,7 +8573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8583,17 +8584,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8603,14 +8624,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.4</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>56.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6783</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8619,14 +8662,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>16.69</v>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8635,14 +8700,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.12</v>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -8651,14 +8738,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>60</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32.49</v>
+          <t>168501</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北信瑞丰产业升级多策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8667,13 +8776,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001056</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰健康生活主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>60</v>
       </c>
       <c r="D6" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
         <v>24.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9085,7 +9086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9096,17 +9097,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9116,14 +9137,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
+          <t>920003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金新锐股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -9132,14 +9175,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20.4</v>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9148,14 +9213,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.69</v>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -9164,14 +9251,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.12</v>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2377</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -9180,14 +9289,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" t="n">
-        <v>32.49</v>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -9196,13 +9327,715 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2062</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>920923</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中金新锐股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010613</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005331</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>益民优势安享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000410</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>益民服务领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010614</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中融产业趋势一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>20.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>60</v>
       </c>
       <c r="D7" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
         <v>24.83</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>3.12</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>1.93</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>20.4</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>16.69</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>6.12</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>32.49</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>60</v>
       </c>
       <c r="D8" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" t="n">
         <v>24.83</v>
       </c>
     </row>
@@ -600,6 +617,746 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4928</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9572</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4805</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2570</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001396</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信互联网+产业升级股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>53.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1415,7 +2172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1927,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3347,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4505,7 +5262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5388,2328 +6145,6 @@
       </c>
       <c r="H23" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时主题行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011056</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时汇兴回报一年持有期灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>139.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8156</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.0793</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时价值增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7633</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6798</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010659</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银质量领先混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>53.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4756</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3854</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2802</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011177</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>38.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1696</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9802</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004505</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时新兴消费主题混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7961</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7268</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000408</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7254</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5918</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5367</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009663</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5169</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5133</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501202</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4798</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>690005</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>民生加银内需增长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4666</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>78.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3974</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3676</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3625</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007731</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3280</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>57.83</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3203</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>62.23</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3199</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>80.51</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1779</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1750</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1731</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1582</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006813</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时汇悦回报混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>82.30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009154</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>海富通富盈混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0962</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010665</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>81.54</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010660</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>民生加银质量领先混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>53.51</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009155</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>海富通富盈混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>010666</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>博时高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>81.54</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0347</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005708</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国联安远见成长混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>160522</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002424</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>博时文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>74.39</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010461</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>民生加银康利混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007732</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>011178</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>46.09</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>009706</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>57.83</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -7784,6 +6219,2328 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3747</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>139.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>42.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8156</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>53.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4756</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3854</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2802</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011177</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1696</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9802</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7961</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7268</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7254</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5918</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5367</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4666</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001236</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3625</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3280</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3199</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>53.51</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>74.39</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010461</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银康利混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002556</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时丝路主题股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005482</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011178</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时汇融回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>46.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005483</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>57.83</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>100.63</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603218-日月股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>6.73</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>3.12</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>1.93</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>20.4</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>16.69</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>6.12</v>
+        <v>16.69</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>32.49</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2357 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>60</v>
       </c>
       <c r="D9" t="n">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" t="n">
         <v>24.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时主题行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4076</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000577</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信价值精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1831</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0160</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160527</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4621</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3383</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004505</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时新兴消费主题混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7876</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009740</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6864</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>690005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银内需增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>77.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4112</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4079</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3345</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2737</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009967</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时荣泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2437</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2115</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009592</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001352</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银新战略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006813</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时汇悦回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>73.71</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009154</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通富盈混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0849</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>673060</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160519</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时睿利事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000534</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160528</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009741</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>71.92</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009258</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得景瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009155</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>海富通富盈混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002424</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时文体娱乐主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005708</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安远见成长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>51.42</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>51.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>59.42</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2961,1240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011724</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010059</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红鼎元3个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1115</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>169107</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红恒阳五年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012975</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3730</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启恒三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2954</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012976</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得碳中和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014573</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方红锦弘甄选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华增瑞灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华增华混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012949</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004128</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红安盈甄选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>910011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012684</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方红安盈甄选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015027</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华增华混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.57</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>015707</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011312</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方红启瑞三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012950</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方红招瑞甄选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015708</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信新能源主题股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +4934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2172,7 +5750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2684,7 +6262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4104,7 +7682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5262,7 +8840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6145,2328 +9723,6 @@
       </c>
       <c r="H23" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H61"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160505</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时主题行业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.19</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3747</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011056</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时汇兴回报一年持有期灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>139.18</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>42.98</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8156</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009591</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>42.24</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.0793</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>050001</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时价值增长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>30.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.14</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.7633</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160527</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.76</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.6798</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010659</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>民生加银质量领先混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>46.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>53.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.4756</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>25.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.3854</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160607</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华价值优势混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.85</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2802</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011177</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>38.60</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>46.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.1696</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>15.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9802</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004505</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时新兴消费主题混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>10.38</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.7961</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>050201</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时价值增长贰号混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>12.51</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>85.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.7268</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000408</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7254</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009740</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8.86</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5918</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>206002</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华精选成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>10.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5367</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009663</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>11.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5169</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5133</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>501202</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>10.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>73.92</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.4798</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>690005</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>民生加银内需增长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.85</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.4666</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>19.29</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>78.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.3974</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001236</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>10.10</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.3676</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3625</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>007731</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>6.32</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3280</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>10.30</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>57.83</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.3203</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>13.44</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>62.23</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.3199</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009967</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>博时荣泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>80.51</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2197</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003434</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1779</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009592</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1750</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>673060</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1731</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>006976</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>鹏华核心优势混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.44</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1582</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006813</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时汇悦回报混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>82.30</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1031</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160518</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0963</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009154</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>海富通富盈混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>8.22</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0962</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010665</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>博时高端装备混合A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>81.54</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0780</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>010660</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>民生加银质量领先混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>53.51</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009258</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>西部利得景瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.06</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0682</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>65.73</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>009155</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>海富通富盈混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>23.86</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>160528</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>95.19</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>7.07</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0573</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>160519</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>80.04</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0549</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>008871</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票A</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>010666</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>博时高端装备混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>81.54</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0431</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>009741</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>79.29</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>6.68</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0347</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>80.46</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0328</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005708</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>国联安远见成长混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>7.10</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0327</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0309</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>160522</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>91.79</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0297</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>002424</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>博时文体娱乐主题混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>74.39</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>010461</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>民生加银康利混合</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>28.28</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>002556</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>博时丝路主题股票C</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>87.60</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0189</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>007732</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>民生加银持续成长混合C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>92.92</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>005482</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>011178</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>博时汇融回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>46.09</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>008872</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>大成睿裕六个月持有期股票C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>89.44</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005483</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>博时创新驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>72.78</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>009706</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合C</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>003435</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>博时鑫泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>57.83</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>91.20</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>6.39</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8541,26 +9797,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>100.63</t>
+          <t>92.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.29</t>
+          <t>80.82</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4.4076</t>
+          <t>5.3747</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -8569,32 +9825,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009591</t>
+          <t>011056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合A</t>
+          <t>博时汇兴回报一年持有期灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.30</t>
+          <t>139.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>42.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.6776</t>
+          <t>4.8156</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -8607,36 +9863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000577</t>
+          <t>009591</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信价值精选股票</t>
+          <t>博时研究精选一年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>42.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.68</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.66</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.1831</t>
+          <t>3.0793</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8655,26 +9911,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>34.58</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.0160</t>
+          <t>1.7633</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8693,26 +9949,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.89</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>95.19</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.4621</t>
+          <t>1.6798</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8721,36 +9977,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>010659</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>民生加银质量领先混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.76</t>
+          <t>46.55</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.66</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.88</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3383</t>
+          <t>1.4756</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -8759,36 +10015,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16.24</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0247</t>
+          <t>1.3854</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -8797,36 +10053,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>160607</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>鹏华价值优势混合(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.9007</t>
+          <t>1.2802</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -8835,36 +10091,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000408</t>
+          <t>011177</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>民生加银城镇化混合A</t>
+          <t>博时汇融回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.49</t>
+          <t>38.60</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.8000</t>
+          <t>1.1696</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -8873,36 +10129,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004505</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时新兴消费主题混合</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.00</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.7876</t>
+          <t>0.9802</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -8911,36 +10167,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009740</t>
+          <t>004505</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合A</t>
+          <t>博时新兴消费主题混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.33</t>
+          <t>10.38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.92</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.6864</t>
+          <t>0.7961</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -8949,36 +10205,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009857</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>68.55</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.6435</t>
+          <t>0.7268</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -8987,36 +10243,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>690005</t>
+          <t>000408</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>民生加银内需增长混合</t>
+          <t>民生加银城镇化混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11.08</t>
+          <t>14.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>92.95</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>5.58</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.6183</t>
+          <t>0.7254</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -9025,36 +10281,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009663</t>
+          <t>009740</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+          <t>博时研究臻选三年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>8.86</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>77.36</t>
+          <t>79.29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.4481</t>
+          <t>0.5918</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -9063,36 +10319,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>501202</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.70</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.36</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.4481</t>
+          <t>0.5367</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -9101,36 +10357,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004448</t>
+          <t>009663</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时汇智回报灵活配置混合</t>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.34</t>
+          <t>11.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>81.29</t>
+          <t>73.92</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.4112</t>
+          <t>0.5169</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -9139,36 +10395,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>12.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.31</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.4079</t>
+          <t>0.5133</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -9177,36 +10433,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>501202</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>10.34</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>73.92</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.3730</t>
+          <t>0.4798</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -9215,36 +10471,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>007731</t>
+          <t>690005</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合A</t>
+          <t>民生加银内需增长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>8.99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>89.85</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.3345</t>
+          <t>0.4666</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -9253,36 +10509,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>19.29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>78.63</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.2737</t>
+          <t>0.3974</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -9291,36 +10547,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>009967</t>
+          <t>001236</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>博时荣泰灵活配置混合</t>
+          <t>博时丝路主题股票A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>5.29</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>61.45</t>
+          <t>87.60</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.2714</t>
+          <t>0.3676</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -9329,36 +10585,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005409</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合A</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.2437</t>
+          <t>0.3625</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -9367,36 +10623,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001215</t>
+          <t>007731</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
+          <t>民生加银持续成长混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.39</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.2115</t>
+          <t>0.3280</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -9405,36 +10661,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>003434</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>博时鑫泽灵活配置混合A</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>10.30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>59.42</t>
+          <t>57.83</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.1996</t>
+          <t>0.3203</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -9443,36 +10699,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009592</t>
+          <t>009970</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>博时研究精选一年持有期灵活配置混合C</t>
+          <t>财通内需增长12个月定期开放混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>13.44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>62.23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.1519</t>
+          <t>0.3199</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -9481,36 +10737,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>006976</t>
+          <t>009967</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>鹏华核心优势混合</t>
+          <t>博时荣泰灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>80.51</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5.68</t>
+          <t>7.96</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.1511</t>
+          <t>0.2197</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -9519,36 +10775,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>001352</t>
+          <t>003434</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>民生加银新战略灵活配置混合</t>
+          <t>博时鑫泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>21.47</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.1274</t>
+          <t>0.1779</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -9557,36 +10813,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006813</t>
+          <t>009592</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>博时汇悦回报混合</t>
+          <t>博时研究精选一年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>73.71</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>7.29</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0908</t>
+          <t>0.1750</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -9595,36 +10851,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>673060</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>西部利得景瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>84.74</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0902</t>
+          <t>0.1731</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -9633,36 +10889,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>009154</t>
+          <t>006976</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>海富通富盈混合A</t>
+          <t>鹏华核心优势混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.31</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>27.53</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0849</t>
+          <t>0.1582</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -9671,12 +10927,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>673060</t>
+          <t>006813</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合A</t>
+          <t>博时汇悦回报混合</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -9686,21 +10942,21 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>82.30</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0825</t>
+          <t>0.1031</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -9709,36 +10965,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>160518</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>93.62</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0811</t>
+          <t>0.0963</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -9747,32 +11003,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>160519</t>
+          <t>009154</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>博时睿利事件驱动灵活配置混合</t>
+          <t>海富通富盈混合A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>8.22</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>83.06</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0785</t>
+          <t>0.0962</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -9785,32 +11041,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>000534</t>
+          <t>010665</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长盛高端装备制造灵活配置混合</t>
+          <t>博时高端装备混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>81.54</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0780</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -9823,36 +11079,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>160518</t>
+          <t>010660</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+          <t>民生加银质量领先混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>82.42</t>
+          <t>53.51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0686</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -9861,36 +11117,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>009258</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>西部利得景瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>63.71</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>8.42</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0674</t>
+          <t>0.0682</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -9899,32 +11155,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>005189</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票A</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>65.73</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>8.41</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0612</t>
+          <t>0.0673</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -9937,36 +11193,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>160528</t>
+          <t>009155</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>博时研究优选3年封闭运作灵活配置混合C</t>
+          <t>海富通富盈混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>4.99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>89.22</t>
+          <t>23.86</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0496</t>
+          <t>0.0584</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -9975,36 +11231,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>009858</t>
+          <t>160528</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
+          <t>博时研究优选3年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>68.55</t>
+          <t>95.19</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>7.07</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0434</t>
+          <t>0.0573</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -10013,36 +11269,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>009741</t>
+          <t>160519</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>博时研究臻选三年持有期灵活配置混合C</t>
+          <t>博时睿利事件驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>71.92</t>
+          <t>80.04</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0428</t>
+          <t>0.0549</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -10051,36 +11307,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>009258</t>
+          <t>008871</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>西部利得景瑞灵活配置混合C</t>
+          <t>大成睿裕六个月持有期股票A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>87.51</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0398</t>
+          <t>0.0548</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -10089,36 +11345,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>009155</t>
+          <t>010666</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>海富通富盈混合C</t>
+          <t>博时高端装备混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>4.99</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>27.53</t>
+          <t>81.54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0344</t>
+          <t>0.0431</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -10127,36 +11383,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>009741</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>博时研究臻选三年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>79.29</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0347</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -10165,36 +11421,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>002424</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>博时文体娱乐主题混合</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0283</t>
+          <t>0.0328</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -10203,36 +11459,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006823</t>
+          <t>005708</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>凯石湛混合C</t>
+          <t>国联安远见成长混合</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>93.03</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>7.10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0275</t>
+          <t>0.0327</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -10241,36 +11497,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>160522</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>85.91</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>5.42</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0274</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -10279,32 +11535,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>160522</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>93.25</t>
+          <t>88.46</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>6.79</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0299</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -10317,32 +11573,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005708</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国联安远见成长混合</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>91.79</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -10355,36 +11611,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005188</t>
+          <t>002424</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>海富通量化前锋股票C</t>
+          <t>博时文体娱乐主题混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>74.39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0225</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -10393,36 +11649,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>007732</t>
+          <t>010461</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>民生加银持续成长混合C</t>
+          <t>民生加银康利混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>94.59</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0125</t>
+          <t>0.0209</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
@@ -10431,36 +11687,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>002555</t>
+          <t>002556</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
+          <t>博时丝路主题股票C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>79.23</t>
+          <t>87.60</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>6.24</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0189</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -10469,12 +11725,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007243</t>
+          <t>007732</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合A</t>
+          <t>民生加银持续成长混合C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -10484,21 +11740,21 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>51.42</t>
+          <t>92.92</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0109</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -10507,36 +11763,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>006822</t>
+          <t>005482</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>凯石湛混合A</t>
+          <t>博时创新驱动灵活配置混合A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>77.93</t>
+          <t>72.78</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -10545,36 +11801,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>010032</t>
+          <t>011178</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>华泰柏瑞战略新兴产业混合C</t>
+          <t>博时汇融回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>89.46</t>
+          <t>46.09</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0090</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -10583,36 +11839,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>007244</t>
+          <t>008872</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>安信核心竞争力灵活配置混合C</t>
+          <t>大成睿裕六个月持有期股票C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>51.42</t>
+          <t>89.44</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -10621,36 +11877,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>003366</t>
+          <t>005483</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>浙商汇金中证转型成长指数</t>
+          <t>博时创新驱动灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>95.23</t>
+          <t>72.78</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0018</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -10674,21 +11930,21 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.0018</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -10712,21 +11968,21 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>59.42</t>
+          <t>30.15</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -10735,29 +11991,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>007234</t>
+          <t>010131</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>57.83</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G60" t="n">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -10766,34 +12022,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>010131</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.00</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
